--- a/img/000Entradas.xlsx
+++ b/img/000Entradas.xlsx
@@ -2846,11 +2846,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="202968448"/>
-        <c:axId val="202974336"/>
+        <c:axId val="196545920"/>
+        <c:axId val="196555904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202968448"/>
+        <c:axId val="196545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,7 +2890,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202974336"/>
+        <c:crossAx val="196555904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2898,7 +2898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202974336"/>
+        <c:axId val="196555904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +2946,7 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202968448"/>
+        <c:crossAx val="196545920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -3367,8 +3367,8 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>

--- a/img/000Entradas.xlsx
+++ b/img/000Entradas.xlsx
@@ -3368,7 +3368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
